--- a/data/input/absenteeism_data_22.xlsx
+++ b/data/input/absenteeism_data_22.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>63181</v>
+        <v>56272</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. Enzo Gabriel Vieira</t>
+          <t>Nathan Dias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45085</v>
+        <v>45089</v>
       </c>
       <c r="G2" t="n">
-        <v>4281.76</v>
+        <v>10988.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17200</v>
+        <v>14672</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Alice Pires</t>
+          <t>Leonardo Pereira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45097</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>8023.8</v>
+        <v>7202.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>47632</v>
+        <v>42295</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sabrina Nogueira</t>
+          <t>Vitor Mendes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45078</v>
+        <v>45080</v>
       </c>
       <c r="G4" t="n">
-        <v>10524.85</v>
+        <v>4312.12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>90944</v>
+        <v>77845</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Guilherme Novaes</t>
+          <t>Dra. Emanuella Porto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,147 +577,147 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45088</v>
+        <v>45105</v>
       </c>
       <c r="G5" t="n">
-        <v>3011.03</v>
+        <v>7321.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69462</v>
+        <v>89945</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ian Nunes</t>
+          <t>Sra. Júlia Almeida</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45104</v>
+        <v>45094</v>
       </c>
       <c r="G6" t="n">
-        <v>10311.8</v>
+        <v>3723.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20578</v>
+        <v>580</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Stephany Alves</t>
+          <t>Arthur Moreira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45094</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>6986.45</v>
+        <v>9249.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>89335</v>
+        <v>5785</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maitê Duarte</t>
+          <t>Vitor Gabriel da Cunha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>9685.549999999999</v>
+        <v>10990.16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24128</v>
+        <v>57904</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ian Sales</t>
+          <t>Gabrielly Pires</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45083</v>
+        <v>45082</v>
       </c>
       <c r="G9" t="n">
-        <v>9685.440000000001</v>
+        <v>10313.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>75258</v>
+        <v>2873</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maria Luiza Freitas</t>
+          <t>Thales Lopes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45078</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>2697.92</v>
+        <v>11484.13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>36393</v>
+        <v>1100</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Gustavo da Costa</t>
+          <t>Luiz Otávio da Cunha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45105</v>
+        <v>45085</v>
       </c>
       <c r="G11" t="n">
-        <v>3776.83</v>
+        <v>6114.83</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_22.xlsx
+++ b/data/input/absenteeism_data_22.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56272</v>
+        <v>73441</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nathan Dias</t>
+          <t>Valentina Gonçalves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,51 +494,51 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45106</v>
       </c>
       <c r="G2" t="n">
-        <v>10988.38</v>
+        <v>3963.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14672</v>
+        <v>82233</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leonardo Pereira</t>
+          <t>Ana Beatriz Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45106</v>
       </c>
       <c r="G3" t="n">
-        <v>7202.1</v>
+        <v>7499.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>42295</v>
+        <v>465</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vitor Mendes</t>
+          <t>Lara Melo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,147 +548,147 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45080</v>
+        <v>45095</v>
       </c>
       <c r="G4" t="n">
-        <v>4312.12</v>
+        <v>12152.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>77845</v>
+        <v>5276</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dra. Emanuella Porto</t>
+          <t>Fernando Araújo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45105</v>
+        <v>45079</v>
       </c>
       <c r="G5" t="n">
-        <v>7321.46</v>
+        <v>5823.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89945</v>
+        <v>49266</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sra. Júlia Almeida</t>
+          <t>Francisco Moraes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>3723.13</v>
+        <v>12030.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>580</v>
+        <v>45502</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arthur Moreira</t>
+          <t>Cauã Gomes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45080</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>9249.32</v>
+        <v>7869.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5785</v>
+        <v>52614</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vitor Gabriel da Cunha</t>
+          <t>Ana Laura Azevedo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45087</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>10990.16</v>
+        <v>7509.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>57904</v>
+        <v>95211</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gabrielly Pires</t>
+          <t>Erick Araújo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45082</v>
+        <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>10313.7</v>
+        <v>4337.47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2873</v>
+        <v>52590</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Thales Lopes</t>
+          <t>Kamilly Farias</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45102</v>
       </c>
       <c r="G10" t="n">
-        <v>11484.13</v>
+        <v>6647.07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1100</v>
+        <v>40640</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luiz Otávio da Cunha</t>
+          <t>Rafael Fogaça</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45085</v>
+        <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>6114.83</v>
+        <v>8358.959999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_22.xlsx
+++ b/data/input/absenteeism_data_22.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73441</v>
+        <v>31638</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Valentina Gonçalves</t>
+          <t>Diego Santos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45106</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>3963.06</v>
+        <v>4951.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>82233</v>
+        <v>18055</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Beatriz Cardoso</t>
+          <t>Srta. Maria Fernanda Moraes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45106</v>
+        <v>45100</v>
       </c>
       <c r="G3" t="n">
-        <v>7499.2</v>
+        <v>6966.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>465</v>
+        <v>29789</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lara Melo</t>
+          <t>João Felipe Nunes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45079</v>
       </c>
       <c r="G4" t="n">
-        <v>12152.49</v>
+        <v>5836.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5276</v>
+        <v>60953</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fernando Araújo</t>
+          <t>Vitor Silveira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,80 +581,80 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45079</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>5823.9</v>
+        <v>9699.68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>49266</v>
+        <v>68287</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Francisco Moraes</t>
+          <t>Lara Ramos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45097</v>
       </c>
       <c r="G6" t="n">
-        <v>12030.16</v>
+        <v>10464.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>45502</v>
+        <v>67622</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cauã Gomes</t>
+          <t>Maria Sophia da Mata</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45083</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>7869.3</v>
+        <v>8497.65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>52614</v>
+        <v>14144</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Laura Azevedo</t>
+          <t>Nathan Oliveira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45079</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>7509.61</v>
+        <v>2811.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>95211</v>
+        <v>38127</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Erick Araújo</t>
+          <t>Carolina Teixeira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45095</v>
+        <v>45090</v>
       </c>
       <c r="G9" t="n">
-        <v>4337.47</v>
+        <v>8706.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>52590</v>
+        <v>41412</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kamilly Farias</t>
+          <t>Sra. Melissa Aragão</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45102</v>
+        <v>45087</v>
       </c>
       <c r="G10" t="n">
-        <v>6647.07</v>
+        <v>6921.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>40640</v>
+        <v>51236</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rafael Fogaça</t>
+          <t>João Lucas Aragão</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45093</v>
+        <v>45088</v>
       </c>
       <c r="G11" t="n">
-        <v>8358.959999999999</v>
+        <v>9302.48</v>
       </c>
     </row>
   </sheetData>
